--- a/Poblacion.xlsx
+++ b/Poblacion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moises Almanzar\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moises Almanzar\Desktop\Proyecto Samsung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F424468A-5511-41C3-B557-39BD41C306A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BC637A-E978-4C0A-BD1E-235DD7C4FFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="11400" xr2:uid="{8CFA3EBA-FD42-4E49-A972-4A18E9FD9F70}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{8CFA3EBA-FD42-4E49-A972-4A18E9FD9F70}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -986,7 +986,7 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="L7" sqref="L7:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
